--- a/public/CustomerData.xlsx
+++ b/public/CustomerData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,41 +410,9 @@
         <v>Phone Number</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>JOEL KOSSI TG</v>
-      </c>
-      <c r="B2" t="str">
-        <v>97676545</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>JOHN DOE BN</v>
-      </c>
-      <c r="B3" t="str">
-        <v>67890989</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>COULIBALLY ALI CI</v>
-      </c>
-      <c r="B4" t="str">
-        <v>0103456789</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>BISMARK ATIBA GH</v>
-      </c>
-      <c r="B5" t="str">
-        <v>0554459813</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
   </ignoredErrors>
 </worksheet>
 </file>